--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C148F884-6735-4BAB-8B9F-54E7C524D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB01FC-AA72-4691-8629-0F704CE31E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2160D0A9-4549-4102-AED9-CE1E34E67685}"/>
   </bookViews>
@@ -488,8 +488,8 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,8 +593,8 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="132" x14ac:dyDescent="0.3">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB01FC-AA72-4691-8629-0F704CE31E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA622D08-DB34-48C3-B0CD-97E9D55909D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2160D0A9-4549-4102-AED9-CE1E34E67685}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -170,6 +176,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,144 +506,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC5D3D9-88B2-4033-8A96-206362A89C3F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA622D08-DB34-48C3-B0CD-97E9D55909D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45C5113-CB3A-49F6-9BD8-DFF46E953B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2160D0A9-4549-4102-AED9-CE1E34E67685}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Number</t>
   </si>
@@ -510,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,8 +566,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45C5113-CB3A-49F6-9BD8-DFF46E953B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907A167-CE2E-4EEE-AACA-2BA29BA4581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2160D0A9-4549-4102-AED9-CE1E34E67685}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Number</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Regional/regional.php</t>
+  </si>
+  <si>
+    <t>dun sa may change password kuya kapag empty yung fields tapos pinindut mo yung update magpapakita agad yung alert na swal, yung dati kase kt kapag pinindut mo yung update tapos empty fields yung modal muna nagpapakita yung are you sure you want to save this update?, tapos kapag pinindot mo yung okay tsaka lang magpapakita yung alert na para sa empty fields, mas maganda sana kapag empty fields tas pinindut yung update alert agad d na magpapakita yung modal kuya.</t>
+  </si>
+  <si>
+    <t>Admin/admin.php</t>
+  </si>
+  <si>
+    <t>dun sa may database na dropdown kuya, may laman yan na backup and restore, yung backup kase kuya kt idadownload niya yung dbcaps.sql tapos ang request ni sir kuya kt kapag pinindot mo yung backup magseselect ka ng directory or folder kung saan mo gusto ilagay yung idadownload mo, parang kapag magsesave ka ng word kuya magseselect ka ng directory.</t>
   </si>
 </sst>
 </file>
@@ -506,11 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC5D3D9-88B2-4033-8A96-206362A89C3F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +681,37 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907A167-CE2E-4EEE-AACA-2BA29BA4581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2160D0A9-4549-4102-AED9-CE1E34E67685}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Number</t>
   </si>
@@ -81,15 +80,9 @@
     <t>adda mainayun nga filter kuya, Select Division to filter kuya, ti karga na kt dagiyay division, ta for example nu multiple divisions ti nakasubmit ti attendees dan mabalin ifilter ni regional nu sino nga division ti kayat na makita, adda mt lang all nga option kuya isu jay amin aminen(naaramid kun ajay ui na kuya)</t>
   </si>
   <si>
-    <t>generateform.php and generatelist.php</t>
-  </si>
-  <si>
     <t>kuya masuktan ti function ajay export as pdf nga button kanu kuya haanen nga export, kasla open as pdf kuya, nu iclick mo jy button kt agopen ti baro nga tab ijy browser tapos idisplay na jy report in pdf form kuya haanen nga export kuya kasla open as pdf lattan</t>
   </si>
   <si>
-    <t>kasla mt la atuy no. 7 kuya.</t>
-  </si>
-  <si>
     <t>PENDING</t>
   </si>
   <si>
@@ -115,12 +108,33 @@
   </si>
   <si>
     <t>dun sa may database na dropdown kuya, may laman yan na backup and restore, yung backup kase kuya kt idadownload niya yung dbcaps.sql tapos ang request ni sir kuya kt kapag pinindot mo yung backup magseselect ka ng directory or folder kung saan mo gusto ilagay yung idadownload mo, parang kapag magsesave ka ng word kuya magseselect ka ng directory.</t>
+  </si>
+  <si>
+    <t>Regional/generateform.php and generatelist.php</t>
+  </si>
+  <si>
+    <t>kasla mt la atuy no. 7 kuya. Ijy GAD AR atuy kuya.</t>
+  </si>
+  <si>
+    <t>Regional/viewform.php - actionform.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu agapprove ak ijy viewform ijy gpb agredirect ijy gpb kuya, nu mt agapprove ak ijy viewform ijy gad ar agredirect mt lng ijy gad ar kuya. </t>
+  </si>
+  <si>
+    <t>Division/gpb.php &amp; gadar.php</t>
+  </si>
+  <si>
+    <t>Jay table kuya fit ijy screen.</t>
+  </si>
+  <si>
+    <t>ijy GAD AR atuy kuya, jy ngy kuwa atuy kuya jy inikkat ta jy filter nga division, ta suktan ti kasla new tab nga list ti division nga nagsubmit ti attendees tapos addan to view button ijy igid, ta mabalin iview dagijy personnels per division kuya(nagaramid ak ui nan kuya attendees.php nagan na)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,18 +531,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC5D3D9-88B2-4033-8A96-206362A89C3F}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="122.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -542,13 +556,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
@@ -562,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -579,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -596,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -613,10 +627,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -630,10 +644,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -647,10 +661,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -658,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -675,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
@@ -686,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -700,17 +714,58 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Number</t>
   </si>
@@ -80,12 +80,6 @@
     <t>adda mainayun nga filter kuya, Select Division to filter kuya, ti karga na kt dagiyay division, ta for example nu multiple divisions ti nakasubmit ti attendees dan mabalin ifilter ni regional nu sino nga division ti kayat na makita, adda mt lang all nga option kuya isu jay amin aminen(naaramid kun ajay ui na kuya)</t>
   </si>
   <si>
-    <t>kuya masuktan ti function ajay export as pdf nga button kanu kuya haanen nga export, kasla open as pdf kuya, nu iclick mo jy button kt agopen ti baro nga tab ijy browser tapos idisplay na jy report in pdf form kuya haanen nga export kuya kasla open as pdf lattan</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -98,24 +92,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Regional/regional.php</t>
-  </si>
-  <si>
-    <t>dun sa may change password kuya kapag empty yung fields tapos pinindut mo yung update magpapakita agad yung alert na swal, yung dati kase kt kapag pinindut mo yung update tapos empty fields yung modal muna nagpapakita yung are you sure you want to save this update?, tapos kapag pinindot mo yung okay tsaka lang magpapakita yung alert na para sa empty fields, mas maganda sana kapag empty fields tas pinindut yung update alert agad d na magpapakita yung modal kuya.</t>
-  </si>
-  <si>
-    <t>Admin/admin.php</t>
-  </si>
-  <si>
-    <t>dun sa may database na dropdown kuya, may laman yan na backup and restore, yung backup kase kuya kt idadownload niya yung dbcaps.sql tapos ang request ni sir kuya kt kapag pinindot mo yung backup magseselect ka ng directory or folder kung saan mo gusto ilagay yung idadownload mo, parang kapag magsesave ka ng word kuya magseselect ka ng directory.</t>
-  </si>
-  <si>
-    <t>Regional/generateform.php and generatelist.php</t>
-  </si>
-  <si>
-    <t>kasla mt la atuy no. 7 kuya. Ijy GAD AR atuy kuya.</t>
-  </si>
-  <si>
     <t>Regional/viewform.php - actionform.php</t>
   </si>
   <si>
@@ -129,6 +105,30 @@
   </si>
   <si>
     <t>ijy GAD AR atuy kuya, jy ngy kuwa atuy kuya jy inikkat ta jy filter nga division, ta suktan ti kasla new tab nga list ti division nga nagsubmit ti attendees tapos addan to view button ijy igid, ta mabalin iview dagijy personnels per division kuya(nagaramid ak ui nan kuya attendees.php nagan na)</t>
+  </si>
+  <si>
+    <t>ijy edit user kuya, nu mapansin mo kuya nu iedit mo jy user ti agparang ijy location na kt haan nga jy location na mismo gamin naipada metten ijy location ti add user kuya, nu iedit ko kuma kt agparang mt la jy current location na kuya, ta for example nu jy name na lang ti iedit ko kuya tapos iupdate ko jy lang name kuma ti agsukat dita gamin kt pati jy location na metten kt agsukat</t>
+  </si>
+  <si>
+    <t>Admin/user.php &amp; deactuser.php</t>
+  </si>
+  <si>
+    <t>Regional/divisionmanagement.php &amp; deactuser.php</t>
+  </si>
+  <si>
+    <t>Same mt lang dtuy no. 10 kuya</t>
+  </si>
+  <si>
+    <t>Division/division.php</t>
+  </si>
+  <si>
+    <t>nu iclick mo jy profile kuya agpada da kuma ti function ijy location kasla jy location ti edit user ngy kuya ijy user management ijy admin, agparang mt lang jy current location na pero dagijy taken'en nga location kt haan nga agparang ijy option</t>
+  </si>
+  <si>
+    <t>Regional/viewform.php</t>
+  </si>
+  <si>
+    <t>Diba ni regional kuya kt isuna mangchecked ajay forms nu approved ba or disapproved or action required, ti usar na ba jy remarks kuya kt kasla pagikkan ti comment na regarding ijy insubmit da ah report? Ta for example nu disapproved or action required ti inkabil ni regional ikabil na ijy remarks nu anya ti kailangan nga aramiden or sukatan ni division nga nagsubmit, nu adda ba ti suktan na or anya. Tapos makita to mt ni division'en ijy approved form nu jy status na kunwari kt disapproved or action required nu iview na jy report kt adda ti kasla textbox ijy baba wherein adda ijy jy comment nga inbaga ni regional nu anya ti aramiden na or suktan na ijy report kuya</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -218,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
@@ -576,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -593,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -610,10 +611,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -627,10 +628,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -644,10 +645,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -661,41 +662,35 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -705,44 +700,40 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -750,22 +741,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037BF951-1D22-417E-8C94-5690017D0F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Number</t>
   </si>
@@ -129,12 +121,15 @@
   </si>
   <si>
     <t>Diba ni regional kuya kt isuna mangchecked ajay forms nu approved ba or disapproved or action required, ti usar na ba jy remarks kuya kt kasla pagikkan ti comment na regarding ijy insubmit da ah report? Ta for example nu disapproved or action required ti inkabil ni regional ikabil na ijy remarks nu anya ti kailangan nga aramiden or sukatan ni division nga nagsubmit, nu adda ba ti suktan na or anya. Tapos makita to mt ni division'en ijy approved form nu jy status na kunwari kt disapproved or action required nu iview na jy report kt adda ti kasla textbox ijy baba wherein adda ijy jy comment nga inbaga ni regional nu anya ti aramiden na or suktan na ijy report kuya</t>
+  </si>
+  <si>
+    <t>WEN GANON. DIBA KUNWARI ADDA TI TYPO NGA NAKITA NI REGIONAL OR ADDA TI MALI GANON. I ACTION REQUIRED NI REGIONAL TAPOS PWEDE NA IEDIT NI DIVISION YUNG FORM NIYA THEN RESUBMIT NIYA. PAG DISAPPROVED NAMAN. WALA NA TALAGA. TOTALLY NGA DISAPPROVED. DI NA PWEDE IRESUBMIT OR IEDIT GANON. PERO NASA SAINYO NO TANGGALIN TAY LATTAN AJAY DISAPPROVED TAPOS A/R NA LANG MAIIWAN.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,12 +529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,6 +675,12 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -689,6 +692,12 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -700,7 +709,12 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -712,7 +726,12 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -724,8 +743,14 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -734,6 +759,12 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -745,6 +776,12 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037BF951-1D22-417E-8C94-5690017D0F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -124,13 +123,22 @@
   </si>
   <si>
     <t>WEN GANON. DIBA KUNWARI ADDA TI TYPO NGA NAKITA NI REGIONAL OR ADDA TI MALI GANON. I ACTION REQUIRED NI REGIONAL TAPOS PWEDE NA IEDIT NI DIVISION YUNG FORM NIYA THEN RESUBMIT NIYA. PAG DISAPPROVED NAMAN. WALA NA TALAGA. TOTALLY NGA DISAPPROVED. DI NA PWEDE IRESUBMIT OR IEDIT GANON. PERO NASA SAINYO NO TANGGALIN TAY LATTAN AJAY DISAPPROVED TAPOS A/R NA LANG MAIIWAN.</t>
+  </si>
+  <si>
+    <t>Regional/generateform.php, generatelist.php, and viewpersonnels.php</t>
+  </si>
+  <si>
+    <t>Ijy filter division kn filter location kuya agkaconnect da mt lang kuma kuya, for example nu ti inselect na nga division kt la union tapos ti position kt teacher 1 amin nga teacher 1 ti la union kuya ti agparang tapos agpakita ijy baba nu mano ti male and female nga teacher 1 ijy la union</t>
+  </si>
+  <si>
+    <t>jy print button kuya kt ti function na kt kasla jy bagbagak idi nga open as pdf, nu iclick mo jy print button kuya kt maopen jy report as pdf tanu mabalin da iprint dagus, gamin nu download as pdf kuya kt masapul pay la idownload sakbay maopen as pdf kn maiprint, ti kayat da kuya kt nu iclick jy print button maopen as pdf jy report(inkabil kun jy button kuya)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +168,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -187,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -216,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,12 +544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,8 +799,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1894D-AF8A-4309-AD3C-907173FE442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,12 +547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -808,6 +811,12 @@
       </c>
       <c r="C15" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1894D-AF8A-4309-AD3C-907173FE442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Number</t>
   </si>
@@ -133,12 +132,39 @@
   </si>
   <si>
     <t>jy print button kuya kt ti function na kt kasla jy bagbagak idi nga open as pdf, nu iclick mo jy print button kuya kt maopen jy report as pdf tanu mabalin da iprint dagus, gamin nu download as pdf kuya kt masapul pay la idownload sakbay maopen as pdf kn maiprint, ti kayat da kuya kt nu iclick jy print button maopen as pdf jy report(inkabil kun jy button kuya)</t>
+  </si>
+  <si>
+    <t>daytuy fiscal year setup kuya, sakbay gamin agupload ni regional ti mandates isetup na muna atuy tanu mairecord ijy 2021 dagijy transactions, daytuy gamin kuya kt for exmple nu nasetup kun jy fiscal year para 2021 matik nga active ti agpakitan ijy status, tapos nu once nga nalpasen ti 2021 naisubmiten amin nga reports for 2021, agisetup ak manen ti fiscal year para 2022 tapos once nga naisetup kun jy 2022 matik metten nga agbalin nga inactive jy status ti 2021 ta jy 2022 ti active'n, amin nga transactions, mandates kada reports idi 2021 kuya maawanen ta 2022 ti nakaactivate'n kasla fresh start manen kuya dagijy mandates, gpb kn gad ar lang ti maawan kuya, pero adda ti action ijy igid nga activate kn deactivate kuya ta for example nu kayat mo subliyanan dagijy reports idi 2021 iactivate mo lang jy year nga 2021 kuya pero for viewing na lang kuya haanen mabalin agupload kn agedit ti mandates kn reports ijy previous year kuya tapos haan nga mabalin nga multiple ti nakaactivate nga year kuya, nalpas kun kuya jy ui kn jy basic input, save, kn display kuya, ijy code kuya nga input gayam once nga ti inselect ko nga date kt year 2021 matik nga 2021 mt ti agparang ijy code kuma kuya, tapos kunwari kuya nakasetup akun ti addo nga fiscal year adda 2022, 2023 and so on tapos naglogout ak, next time nga aglogin ak kuya once nakalogin akun kuya adda agprompt nga modal kuya nakakabil ijy kt the active year is 2021 jy current nga year ti nakactivate dapat kuya tapos adda mt dropdown box ijy baba nga adda label na nga change active year tapos mabalin agselect ijy nu anya nga year ti kayat na maactivate, naaramid kun jy db na kuya idump ko lattan tapos ipush ko kuya(naaramid kun jy ui na kuya kn jy basic function lang input,save and display kuya)</t>
+  </si>
+  <si>
+    <t>Regional/fiscalyear.php</t>
+  </si>
+  <si>
+    <t>Regional/gpbdue.php &amp; gadardue.php</t>
+  </si>
+  <si>
+    <t>dtuy kuya nga iset ni regional GAD coordinator nu katnu ti due date na jy gpb kn gad ar ta daytuy to kuya ti basis na jay notification nga agparang ijy ayan ti division user nu iopen na jy gpb nga page kuya for example nadanun nan jay date nga inset ni regional para jy submission ti gpb adda ti notification nga kuna na for example Today is the due date of your report please submit your report immediately, kasjay mt lang ijy gad ar kuya nu iopen na jy page ti gad ar tapos nadanun nan jy due date adda mt la notification na kuya(naaramid kun jy ui na kuya)</t>
+  </si>
+  <si>
+    <t>Regional/monitoring.php</t>
+  </si>
+  <si>
+    <t>dtuy kuya kt table nga for monitoring ta makita dtuy nu anya nga division ti nakasubmit'en kn nu anya nga division ti saan pay, ajay dropdown kuya nga year kt connected ijy fiscal year kuya nu forexample ti inselect ko kt 2022 dagijy records idi 2022 ti agpakita kasla filter ulit kuya(naaramid kun jy ui na kuya)</t>
+  </si>
+  <si>
+    <t>Division/gadar.php</t>
+  </si>
+  <si>
+    <t>nagadd ak ti another column kuya ti karga na jy add personnel nga button kuya gamin ti kayat da ijy trained personnel ijy regional page kuya makita da nu from what mandate or gender issue nga involve dagijy trained personnel kuya isu nga inkabil ko dtuy ayanti gad ar ta everytime nga agiadd ti report kuya per mandate or gender issue agiadd mt ti trained personnel kuya, nu iclick jy add personnel button agredirect ijy add personnel page tapos nu makaadd ak ti personnel agsubli ijy submit gad ar ta agienter ak manen ti new gender issue tapos agadd ak manen ti trained personnel para ijy nga gerder issue and so on, tanu iview da ijy regional dagijy trained personnel kuya adda ti label na ijy nu from what mandate or gender issue da nga involve dagijy nga personnel kuya(naaramid kun ui na kuya)</t>
+  </si>
+  <si>
+    <t>inrequest da nga adda mt la generate report na kuya kasla jay adda ijy regional, kaso ti pinagkaiba da dtuy ayanti ti division mabalin na igenerate report jy insubmit na nga report uray pending pay lang kuya, for example igenerate na kuya jy insubmit na kaso pending pay lang adda ti status nga agpakita ijy generated report nga pending for approval, nu mt approved jy ingenerate na nga report jy status na agbalin nga approved kuya, mabalin mt la iprint kuya(naaramid kun jy ui na kuya)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,12 +573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,8 +856,60 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:3" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77FDA8B-7AC0-4E19-A287-A78823C55E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Number</t>
   </si>
@@ -159,12 +160,15 @@
   </si>
   <si>
     <t>inrequest da nga adda mt la generate report na kuya kasla jay adda ijy regional, kaso ti pinagkaiba da dtuy ayanti ti division mabalin na igenerate report jy insubmit na nga report uray pending pay lang kuya, for example igenerate na kuya jy insubmit na kaso pending pay lang adda ti status nga agpakita ijy generated report nga pending for approval, nu mt approved jy ingenerate na nga report jy status na agbalin nga approved kuya, mabalin mt la iprint kuya(naaramid kun jy ui na kuya)</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,12 +577,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,8 +859,14 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -866,8 +876,14 @@
       <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -877,8 +893,11 @@
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -888,8 +907,11 @@
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -899,8 +921,11 @@
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -909,6 +934,9 @@
       </c>
       <c r="C21" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77FDA8B-7AC0-4E19-A287-A78823C55E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2733BCF-9701-4565-BB7E-221A8A6788E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Number</t>
   </si>
@@ -581,8 +581,8 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,10 @@
         <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -908,7 +911,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2733BCF-9701-4565-BB7E-221A8A6788E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -163,12 +162,30 @@
   </si>
   <si>
     <t>PENDING</t>
+  </si>
+  <si>
+    <t>adda kuma additional option na kuya wherein mabalin iedit or iupdate jy due date ta baka adda instances nga maiyalis jy due date kuya</t>
+  </si>
+  <si>
+    <t>kuya ijy notification para jy due dates mabalin ba nga agnotif 7 days before jy due date for example ti karga na jy notif kuya kt you only have 7 days to accomplish and submit your GAD Plan and Budget Report, tapos nu 6 days left, 5days left and so on kasjay mt lang kuya</t>
+  </si>
+  <si>
+    <t>Regional/templates.php</t>
+  </si>
+  <si>
+    <t>kasla mt jy ijy upload mandates kuya haanen makaupload ti templates nu agsubli ijy current year</t>
+  </si>
+  <si>
+    <t>Regional/listmandate.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same ijy reports kuya nu nagupload ak ti mandate idi 2021 tapos inactivate ko jy fiscal year idi 2022 dapat jy mandate idi 2021 haanen makita ijy mandate list ti 2022 kuya </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,12 +594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +962,50 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1AAE75-DB27-49F1-B6F1-A39F1F62BB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,12 +595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +960,10 @@
         <v>44</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1AAE75-DB27-49F1-B6F1-A39F1F62BB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F03206-95D1-4745-839D-2E5E3FAB384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Number</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t xml:space="preserve">same ijy reports kuya nu nagupload ak ti mandate idi 2021 tapos inactivate ko jy fiscal year idi 2022 dapat jy mandate idi 2021 haanen makita ijy mandate list ti 2022 kuya </t>
+  </si>
+  <si>
+    <t>ONGOING</t>
+  </si>
+  <si>
+    <t>Will use modal for this</t>
   </si>
 </sst>
 </file>
@@ -599,8 +605,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +982,12 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -987,6 +999,12 @@
       <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -998,6 +1016,12 @@
       <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1008,6 +1032,12 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F03206-95D1-4745-839D-2E5E3FAB384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1584B9-FFD5-4B39-9CF6-E8C982E69DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -181,12 +181,6 @@
   </si>
   <si>
     <t xml:space="preserve">same ijy reports kuya nu nagupload ak ti mandate idi 2021 tapos inactivate ko jy fiscal year idi 2022 dapat jy mandate idi 2021 haanen makita ijy mandate list ti 2022 kuya </t>
-  </si>
-  <si>
-    <t>ONGOING</t>
-  </si>
-  <si>
-    <t>Will use modal for this</t>
   </si>
 </sst>
 </file>
@@ -606,7 +600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,10 +977,10 @@
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1584B9-FFD5-4B39-9CF6-E8C982E69DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDF4E8-85EF-4646-A0D2-F564A66A313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -162,9 +162,6 @@
     <t>inrequest da nga adda mt la generate report na kuya kasla jay adda ijy regional, kaso ti pinagkaiba da dtuy ayanti ti division mabalin na igenerate report jy insubmit na nga report uray pending pay lang kuya, for example igenerate na kuya jy insubmit na kaso pending pay lang adda ti status nga agpakita ijy generated report nga pending for approval, nu mt approved jy ingenerate na nga report jy status na agbalin nga approved kuya, mabalin mt la iprint kuya(naaramid kun jy ui na kuya)</t>
   </si>
   <si>
-    <t>PENDING</t>
-  </si>
-  <si>
     <t>adda kuma additional option na kuya wherein mabalin iedit or iupdate jy due date ta baka adda instances nga maiyalis jy due date kuya</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">same ijy reports kuya nu nagupload ak ti mandate idi 2021 tapos inactivate ko jy fiscal year idi 2022 dapat jy mandate idi 2021 haanen makita ijy mandate list ti 2022 kuya </t>
+  </si>
+  <si>
+    <t>Done with the use of excel only</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
@@ -974,7 +977,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>15</v>
@@ -988,10 +991,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
@@ -1005,10 +1008,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
@@ -1025,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDF4E8-85EF-4646-A0D2-F564A66A313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Number</t>
   </si>
@@ -181,12 +180,42 @@
   </si>
   <si>
     <t>Done with the use of excel only</t>
+  </si>
+  <si>
+    <t>Regional/generateform.php</t>
+  </si>
+  <si>
+    <t>Jay table header jy both gpb and gad ar nga pdf report kuya</t>
+  </si>
+  <si>
+    <t>Regional/generatelist.php</t>
+  </si>
+  <si>
+    <t>Jay print button para ijy both gpb list kn gad ar list kuya pakisimpa lattan kuya, gamin nu iclick ko jy print button kt sabali agpakita kuya</t>
+  </si>
+  <si>
+    <t>Ajay print button function kuya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay notif na kuya para jy due date baliktad kuya </t>
+  </si>
+  <si>
+    <t>Division/generateform.php</t>
+  </si>
+  <si>
+    <t>Ajay table header jy pdf report kuya haan pay naayos</t>
+  </si>
+  <si>
+    <t>Division/viewattendees.php</t>
+  </si>
+  <si>
+    <t>Maikkan mt la ti print button kn function kuya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,12 +624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,6 +1066,72 @@
         <v>17</v>
       </c>
     </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA20C4-75A1-4C21-BB4C-0D85149F8A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>Number</t>
   </si>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,12 +625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1077,12 @@
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1087,6 +1094,12 @@
       <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1098,6 +1111,12 @@
       <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1109,6 +1128,12 @@
       <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1120,6 +1145,12 @@
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1130,6 +1161,12 @@
       </c>
       <c r="C31" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA20C4-75A1-4C21-BB4C-0D85149F8A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Number</t>
   </si>
@@ -211,12 +210,27 @@
   </si>
   <si>
     <t>Maikkan mt la ti print button kn function kuya</t>
+  </si>
+  <si>
+    <t>jay update button kuya awan function na</t>
+  </si>
+  <si>
+    <t>nu idelete ko ijy db jy due dates kuya ta agiset ak ti panibago kt adda error nga agpakita</t>
+  </si>
+  <si>
+    <t>Division/gpb.php</t>
+  </si>
+  <si>
+    <t>nu due kuya kt duwa mt nga modal agparang both jy due kn jy days left</t>
+  </si>
+  <si>
+    <t>haan nga agpakita jy modal para ijy days left kuya pero nu due date kt agpakita mt kuya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,6 +1183,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCAA387-5B2C-4CAB-8497-342FED5C81C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>Number</t>
   </si>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,12 +640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,8 +1194,14 @@
       <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1204,8 +1211,14 @@
       <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1215,8 +1228,14 @@
       <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1225,6 +1244,12 @@
       </c>
       <c r="C35" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCAA387-5B2C-4CAB-8497-342FED5C81C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>Number</t>
   </si>
@@ -226,12 +225,24 @@
   </si>
   <si>
     <t>haan nga agpakita jy modal para ijy days left kuya pero nu due date kt agpakita mt kuya</t>
+  </si>
+  <si>
+    <t>jy active fiscal nga button kuya kt masuktan kanu ti deactivate nga button kuya tapos nu ideactivate mo kt adda agprompt nga modal wherein agselect isuna ti fiscal year nga iactivate na kuya, for example 3 ti fiscal year tapos indeactivate mo jy maysa adda agprompt wherein agpili suna nu anya ti maiactivate nga year kuya.</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>nu aglogin kuya diba kt adda modal nga agpakita nu anya nga fiscal year ti active tapos nu iclick mo ajy okay kt mapukaw, masuktan kanu kuya ikabil latta kanu ijy header'n nu anya nga fiscal year ti active tanu makita latta.</t>
+  </si>
+  <si>
+    <t>jy notif na kuya ijy days left nu ijy gpb kt for example 3 day/s left to submit GPB details tapos kasjay mt lang nu GAD AR kuya tanu ammo kanu nu anya nga form ajy ipasa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,12 +651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,6 +1263,39 @@
         <v>17</v>
       </c>
     </row>
+    <row r="36" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14C95A-D011-4BA7-8116-4B24664E6CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t>Number</t>
   </si>
@@ -237,12 +238,15 @@
   </si>
   <si>
     <t>jy notif na kuya ijy days left nu ijy gpb kt for example 3 day/s left to submit GPB details tapos kasjay mt lang nu GAD AR kuya tanu ammo kanu nu anya nga form ajy ipasa.</t>
+  </si>
+  <si>
+    <t>Done. Located at navbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,12 +655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,6 +1277,12 @@
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
@@ -1284,6 +1294,12 @@
       <c r="C37" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
@@ -1294,6 +1310,20 @@
       </c>
       <c r="C38" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14C95A-D011-4BA7-8116-4B24664E6CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>Number</t>
   </si>
@@ -241,12 +240,45 @@
   </si>
   <si>
     <t>Done. Located at navbar</t>
+  </si>
+  <si>
+    <t>Admin/restore option</t>
+  </si>
+  <si>
+    <t>Under ijy utilities dropdown kuya ajay restore function, ti kayat dagijy pannelist kuya kt nu agrestore ti db dapat mabalin agselect ti db nga kayat mo irestore, ata gamin inaramid ko kt rekta in assign kun dagus ajay db nga irestore na, ngem ti kayat da dapat mabalin ka agpili ta for example nu addo ti naisave mo nga db kuya mabalin mo pilyen ajy db nga kayat mo irestore. Ti naisip ko kuya kt nu iclick mo ajay restore adda agpop up nga modal wherein mabalin mo iinput ajy file or db nga kayat mo irestore. Pero nu adda ammom nga maymayat nga paraan kuya sika latta bahalan kuya.</t>
+  </si>
+  <si>
+    <t>Admin/logs.php</t>
+  </si>
+  <si>
+    <t>dtuy kuya nga mastore amin nga activities and transactions nga napasamak inside the system kuya</t>
+  </si>
+  <si>
+    <t>dtuy kuya kt dapat nu ti start date na kt 2022 dapat ti end date na 2022 mt lang kuya, 12 months of the same year, ti suggestion ajay adviser mi kuya once nga ininput mun ajay start date kunwari 2022 matik metten nga ti agparang ijy end date na kt jy last date ti year 2022 kuya</t>
+  </si>
+  <si>
+    <t>kuya pakiayos mo man ajay download ijy mandate list kuya nu agdownload ak kt han na mafetch ajy filename kn ajy file</t>
+  </si>
+  <si>
+    <t>pinagbalin ko nga 3 tabs kuya bale all, gpb, kn gad ar kuya, pakicheck mo lattan kuya nu okay ajay inaramid ko baka adda mistake ijy codes na</t>
+  </si>
+  <si>
+    <t>Division/mandates.php</t>
+  </si>
+  <si>
+    <t>same ijy number 41 kuya, dapat kuma kt agkaconnect ajay deped memo kn ajay file nga maiupload tapos han ko mafetch ajy file kn filename kuya</t>
+  </si>
+  <si>
+    <t>Division/gpb and gad ar</t>
+  </si>
+  <si>
+    <t>nagnayun ak ti tab nga action required kuya haanen nga ijy pending ti ayan da naaramid kun kuya ngem pakicheck mo lattan baka adda mali ijy codes na kuya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,12 +687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A45:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,12 +1350,87 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14C95A-D011-4BA7-8116-4B24664E6CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36604137-BEB4-4EFD-8AE9-A88F2FAC1B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Number</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Done. Located at navbar</t>
+  </si>
+  <si>
+    <t>TRY</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1321,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
       </c>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35744D0-1DC8-43F9-9DCD-5ADA70312D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 20, 2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>Number</t>
   </si>
@@ -273,12 +274,21 @@
   </si>
   <si>
     <t>nagnayun ak ti tab nga action required kuya haanen nga ijy pending ti ayan da naaramid kun kuya ngem pakicheck mo lattan baka adda mali ijy codes na kuya</t>
+  </si>
+  <si>
+    <t>PARTIAL</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Already checked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,12 +697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,6 +1387,12 @@
       <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
@@ -1388,6 +1404,12 @@
       <c r="C41" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -1399,6 +1421,12 @@
       <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="D42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
@@ -1410,6 +1438,12 @@
       <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="D43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
@@ -1421,6 +1455,12 @@
       <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="D44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -1431,6 +1471,12 @@
       </c>
       <c r="C45" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/List WIP.xlsx
+++ b/List WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GAD_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35744D0-1DC8-43F9-9DCD-5ADA70312D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477A31C-41CD-4995-9E9D-A2128D0F084F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="84">
   <si>
     <t>Number</t>
   </si>
@@ -274,12 +274,6 @@
   </si>
   <si>
     <t>nagnayun ak ti tab nga action required kuya haanen nga ijy pending ti ayan da naaramid kun kuya ngem pakicheck mo lattan baka adda mali ijy codes na kuya</t>
-  </si>
-  <si>
-    <t>PARTIAL</t>
-  </si>
-  <si>
-    <t>WIP</t>
   </si>
   <si>
     <t>Already checked</t>
@@ -702,7 +696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1416,10 @@
         <v>77</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -1442,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -1456,10 +1450,10 @@
         <v>80</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -1476,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
